--- a/biology/Biologie cellulaire et moléculaire/Janus_kinase_1/Janus_kinase_1.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Janus_kinase_1/Janus_kinase_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Janus kinase 1 est une tyrosine kinase, membre de la famille des Janus kinases. Son gène est le JAK1 situ sur le chromosome 1 humain.
 </t>
@@ -511,9 +523,11 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il participe à la voie de transduction de signal JAK-STAT[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il participe à la voie de transduction de signal JAK-STAT.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une mutation du gène est retrouvée dans un cas sur cinq de leucémie aiguë lymphoblastique[6].
-Le filgotinib est une molécule inhibitrice spécifique de la Janus kinase 1 et en cours de test comme médicament : il a des résultats prometteurs dans la maladie de Crohn[7]. L'upadacitinib est en cours de test dans la polyarthrite rhumatoïde[8]. L'abroticinib semble être efficace dans la dermatite atopique[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une mutation du gène est retrouvée dans un cas sur cinq de leucémie aiguë lymphoblastique.
+Le filgotinib est une molécule inhibitrice spécifique de la Janus kinase 1 et en cours de test comme médicament : il a des résultats prometteurs dans la maladie de Crohn. L'upadacitinib est en cours de test dans la polyarthrite rhumatoïde. L'abroticinib semble être efficace dans la dermatite atopique.
 </t>
         </is>
       </c>
